--- a/literature_research/FS_scopus/FS_rural.xlsx
+++ b/literature_research/FS_scopus/FS_rural.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,15 +620,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -656,15 +656,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
+          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
+          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Revisiting global food production and consumption patterns by developing resilient food systems for local communities</t>
+          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>The achievement of resilient food systems requires an integrated approach between optimal localization of productions and changes in food consumption and between local evaluations of the food system and global visions. In this regard, we developed a Food Self-Sufficiency Index. The index evaluates food self-sufficiency achievable in a study area where its community chooses between alternative suggested diets, and the food productions are relocalized using crop suitability maps. The index can be used at different geographical scales, from a single rural settlement to regional and country-level, up to worldwide. It revisits the food components of the ecological footprint and biocapacity to build a tool for supporting local institutions' decisions in food planning at different levels. In this paper, we discuss how the FSSI could help in increasing the resilience of food production and consumption systems. The paper outlines these essential points for the improvement of the food resilience of an area that aims to improve its self-sufficiency (i) Improving technical solutions, (ii) Improving the communities' involvement, (iii) Improving agro-biodiversity, and (iv) Using complex system approaches in food planning. The Food Self-Sufficiency Index is a powerful supporting decision tool to achieve all the previous goals. © 2022 Elsevier Ltd</t>
+          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
+          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
+          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,7 +800,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
+          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>VILLAGE PROJECTS OBSERVED IN ERITREA: POST-CONFLICT PATHWAYS TOWARDS DEMOCRATIC RURAL DEVELOPMENT</t>
+          <t>New rurality and agritourism in Empordà, Catalonia</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Eritrea's rural development trajectory has fallen short of fully meeting the basic needs of its peasants and pastoralists, let alone national food security objectives. This article builds on earlier research on rural development projects in a select number of villages. These projects were primarily characterised by a state-centric technocratic logic that did, to some degree, embed “hard” infrastructure in the villages, but which paid less attention to building village-level capacity or organisational autonomy. Looking beyond these impasses, the present article suggests an inward-oriented national development model centred on the home market, rural co-operatives, and food sovereignty. As yet - at the time of writing - another major war afflicts Eritrea and Ethiopia, the presence of the political will for such a transition is by no means guaranteed. © 2022 University of Hradec Kralove, Philosophical Faculty. All rights reserved.</t>
+          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Toward food sovereignty and self-sufficiency in Latin America and the Caribbean: opportunities for agricultural complementarity; [Hacia una soberanía y autosuficiencia alimentaria en América Latina y el Caribe: oportunidades de complementariedad agrícola]</t>
+          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Food self-sufficiency is a relevant political issue in many countries, developed and developing, particularly to satisfy the internal nutritional needs of the population and face situations in which the prices of basic products are unstable or when a country faces an external shock. Improving resilience involves strengthening local rural communities to meet demand with domestic production. The member countries of Latin America and the Caribbean (LCN) produce enough food to sustain their population and to be one of the world’s largest food exporters. From the theoretical discussion and using data from FAO, the research shows that there is a potential to improve food sovereignty and to define food and agricultural policies through agricultural complementarity among the LCN countries. Diverting part of the current trade with third parties to intraregional trade, for products in which the region has a comparative advantage, would mean that LCN countries could save up to 2.7 billion dollars per year, that is, 6.8% of total imports of food in 2018, avoiding the outflow of foreign currency and promoting greater economic integration between countries. © 2023,Revista de Economia e Sociologia Rural. All rights reserved</t>
+          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GLOBAL FOOD SECURITY AND SOVEREIGNTY IMPACTED BY SARS-CoV-2 PANDEMIC</t>
+          <t>Does the Arab region have an agrarian question?</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>The current health crisis due to the severe acute respiratory syndrome -coronavirus-2 (SARS-CoV-2) is challenging several of the assumptions of a globalized world. There are severe consequences over food security and sovereignty, especially among the poorest and most vulnerable populations. Particularly, since any infectious disease outbreak is directly correlated to an increase in hunger and malnutrition. This assay is set to analyze the impacts of the sanitary crisis on food security and sovereignty in the international context, and highlight how governments are acting to reduce consequences, through the use of an exploratory and analytical methodology. Although the United States (U.S.) has successfully overcome this health crisis, the food crisis has overtaken, as a result of the growing unemployment. In Latin America, the pandemic is exacerbating food access and economic situation. The sanitary crisis has aggravated food shortages in Africa already going on, especially in rural areas. Asia suffered the most significant impact in food security. The new food security policy in the European Union aims to hold food security. Food insecurity and malnutrition are not just about agriculture production; they are also about food access limitations. In consequence, this health crisis cannot be allowed to become also a food crisis. © 2022. All Rights Reserved.</t>
+          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,15 +944,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>New rurality and agritourism in Empordà, Catalonia</t>
+          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
+          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,15 +980,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Food Sovereignty for Whom? Food Poverty, Innovative Public Work Projects and the Authoritarian State</t>
+          <t>Food sovereignty and neo-extractivism: limits and possibilities of an alternative development model</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>In Hungary, public work-based municipal projects played a major role in handling welfare challenges, such that the rise of a precarious rural underclass posited following the postsocialist disembedding of marginalised rural societies from the economy. Given the conditions of an authoritative populist state, this paper explores, using examples of case studies located in disadvantaged rural municipalities, innovative agrarian public work projects, as expressions of the relative freedom of action of local welfare states. Following the critical thinking inspired by Polányi's theory (1944), it sheds light on these efforts, from countermovements to the neo-liberal disembedding of the economy from society including theories on food sovereignty movements. Thus, it reflects upon the degree to which these agricultural activities could be seen as part of a broader countermovement to the social disintegration of nural areas that emerged in the context of the transition to capitalism. © 2021 StudienVerlag. All rights reserved.</t>
+          <t>Food sovereignty and neo-extractivism are two highly contentious concepts that have emerged in the development studies literature and as development alternatives pursued predominantly by governments in Latin America. This paper engages with both Critical Development Studies (CDS) and Critical Globalization Studies (CGS) to analyze the dynamics of this post-neoliberal model in Bolivia, providing insights into the convergences and contradictions of neo-extractivism and food sovereignty. Rather than challenging or transforming the neoliberal model of development, it is argued that the post-neoliberal model has been used strategically by states to gain and maintain legitimacy while facilitating and even exacerbating exploitative forms of extractivism for the accumulation of wealth and power. This has been possible, in part, due to the contradictory class positions that have materialized as the rural poor are increasingly dependent upon, and adversely incorporated into, new ‘modes of extraction’. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Does the Arab region have an agrarian question?</t>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Discussion on food sovereignty and agro-ecology, and Anglophone rural sociology have blind spots when it comes to the Middle East/North African (Arab) region. This article explores them; outlines some initial concepts, discusses avenues for research, and notes some socio-political features of the region which make it distinct from others. It focuses on the necessity to include war and the national question to understand the regional agrarian question and advances and retreats in regional knowledge production. It proceeds by (1) establishing the relative absence of the region from the leading peasant studies journals; (2) synthesizing the region’s political economy and waves of knowledge production; (3) highlighting local traditions which speak to the questions of food sovereignty and agro-ecology; and (4) listing a series of theoretical, historical, and analytical avenues which remain to be addressed. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,15 +1052,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Competing food sovereignties: GMO-free activism, democracy and state preemptive laws in Southern Oregon</t>
+          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Indicators of food sovereignty and food democracy center on people having the right and ability to define their food polices and strategies with respect to food culture, food security, sustainability and use of natural resources. Yet food sovereignty, like democracy, exists on multiple and competing scales, and policymakers and citizens often have different agendas and priorities. In passing a ban on the use of genetically-modified (GMO) seeds in agriculture, Jackson County, Oregon has obtained some measure of food sovereignty. Between 2016 and 2017 ethnographic research was undertaken in rural Southern Oregon where local community and State of Oregon priorities regarding the use of GMO crops are in conflict. This article presents ethnographic research findings about the expression and negotiation of multiple food sovereignties by civil society in rural southern Oregon and the State of Oregon via democratic processes. In particular, these findings illustrate the effects of socio-political power dynamics on local and state acts of food sovereignty, democracy and agrifood policy by analyzing what the different expressions of food sovereignty reveal for its implementation at the local level. © 2020, Springer Nature B.V.</t>
+          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Food sovereignty and neo-extractivism: limits and possibilities of an alternative development model</t>
+          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Food sovereignty and neo-extractivism are two highly contentious concepts that have emerged in the development studies literature and as development alternatives pursued predominantly by governments in Latin America. This paper engages with both Critical Development Studies (CDS) and Critical Globalization Studies (CGS) to analyze the dynamics of this post-neoliberal model in Bolivia, providing insights into the convergences and contradictions of neo-extractivism and food sovereignty. Rather than challenging or transforming the neoliberal model of development, it is argued that the post-neoliberal model has been used strategically by states to gain and maintain legitimacy while facilitating and even exacerbating exploitative forms of extractivism for the accumulation of wealth and power. This has been possible, in part, due to the contradictory class positions that have materialized as the rural poor are increasingly dependent upon, and adversely incorporated into, new ‘modes of extraction’. © 2019 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,15 +1160,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Pampean agroecologies. Instituting eco-logics of local food production; [Agroecologías pampeanas. Eco-lógicas instituyentes de producción local de alimentos]</t>
+          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>In this paper we explore the anthropological question about “how” agroecology is produced, which will enable us to move from the inquiry into agroecology, in the singular and as a normative framework, towards agroecological practices, in the plural and anchored in the daily activities of people. We will put in the foreground the experiences of our interlocutors to characterize the ways of create and reproduce rural life and work in four establishments in the Pampas region of the province of Córdoba, Argentina, trying to mark the variability between them, as well as to extract some premises that constitute the logic that organizes and structures its production practices. It was identified that they operate an agro-eco-logic that puts the relations between species and entities in the primary activity at the center and allows to show a co-production of food. That network of relationships is a condition of possibility so that they can resist and exist, to create ways of living and working on the margins of agribusiness hegemony. Finally, we will reflect on the relationships that are established between agroecology and agribusiness. © 2021</t>
+          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rural revitalization, scholars, and the dynamics of the collective future in China</t>
+          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rural development in the Chinese state's strategy has been a changing political-economic problematic. The state has practiced a strategic essentialism with regard to ‘peasantry.' It has actively taken ‘peasantry' as a temporary unifying master-category while at the same time working with the differences within the category for the long-term goal of transformation. The post-Mao contradiction, emphasizing the protection of the ‘peasantry’ while encouraging differentiation, offers contemporary struggles both opportunity and frustration. This essay examines how the rural has been conceptualized in reform-era policies and discusses two cases of scholar activism, the rural reconstruction movement and the food sovereignty network in China. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,15 +1232,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
+          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,15 +1268,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
+          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
+          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
+          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
+          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,15 +1340,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PREFIGURATIVE POLITICS IN PRACTICE: CONCRETE UTOPIAS IN ITALY'S FOOD SOVEREIGNTY ACTIVISM</t>
+          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>What and how we eat have once again become prominent in debates on the fight for global justice. Proponents of alterglobalism consider experiments with food sovereignty a prefigurative practice that anticipates broader ecocultural change. Critics, however, remain skeptical about its capacity to enhance social change. In social movement research, the practical implications of these prefigurative politics have rarely been investigated empirically. Based on an ethnographic analysis, this article illustrates the multifaceted dynamics of a continuously evolving experiment with Participatory Guarantee Systems (PGS) in a neorural microeconomic network, a cornerstone of food sovereignty activism. An ethnographic perspective can grasp the shifting terrain of the political mobilization, frictions and unintended consequences of these types of politics. The article demonstrates the importance of understanding the complexities of prefiguration as not a simple linear, coherent process. Also, the case study allows a critique of re-emerging neorural populism.  © 2020 Mobilization: An International Quarterly.</t>
+          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,15 +1376,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>“Going local”: farmers’ perspectives on local food systems in rural Canada</t>
+          <t>Greenhouse Agriculture in the Icelandic Food System</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Amid the highly industrialized, export-focused food system of the Canadian prairies, some farmers and consumers are turning to localized agriculture as an alternative—they are “going local”. Despite farmers’ obvious importance to the food system, surprisingly little research has examined their motivations and reasons for localization. To date, most local food scholarship in North America has focused on either consumers’ motivations to buy local or the systemic aspects of local food, such as regulations, infrastructure, and marketing arrangements. Existing research suggests that local food systems are supported by consumers’ rejection of the industrial paradigm and desire to (re)connect with their food and its source. But what drives farmers to localize, particularly when export-focused production is firmly entrenched as the status quo? Based on interviews and focus groups with 60 farmers, processors, policy experts, and retailers in the Canadian prairie province of Saskatchewan, this paper examines local food systems from the producer perspective in a rural context of high industrialization and geographical dispersion. We examine what motivates farmers to produce for local markets, and what forces they must resist to do so. The findings indicate that farmers’ main motivations for localization are political and social in nature, and stem from a critique of the dominant neoliberal agri-food system. We map farmers’ agential responses to this dominant system on a spectrum that ranges from acceptance of a neoliberal “feed the world” ideology to promotion of food sovereignty. Drawing on farmers’ perspectives, our findings question the straightforward equation of local food with environmental sustainability and also challenge neoliberal economic assumptions of “scaling up”. © 2019, Springer Nature B.V.</t>
+          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
+          <t>From Food Production to Commodity Production in Argentina’s Agricultural Sector</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
+          <t>An analysis of the semiotic and productive transformation of food crops under Argentina’s agribusiness model through a study of the diffusion of the term “commodity” in the discourse produced/reproduced by the rural sections of the hegemonic media, combined with statistical data that allow a dialogue between discourse and measurable quantities, concludes that defining the Argentine countryside as a place for commodity production is linked with increasing crop production for export that leads to the erosion of food sovereignty and food security. Un análisis de las transformaciones semióticas y productivas de los frutos de la tierra bajo el modelo argentino de los agronegocios que examina la extensión del término commodity en los discursos producidos/reproducidos por las secciones rurales de los medios gráficos de comunicación hegemónicos, entrecruzado con datos estadísticos para poner en diálogo el nivel del discurso con el de las cantidades medibles, concluye que la consigna que define al campo argentino como un lugar de producción de commodities se imbrica con una tendencia a la intensificación de los cultivos orientados exclusivamente a la exportación y la erosión de la soberanía y seguridad alimentaria. © 2018 Latin American Perspectives.</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,15 +1448,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Heritage and patrimony of the peasantry: An analytical framework to address rural development; [Herencia y patrimonios de campesinado: Un marco analítico para abordar el desarrollo rural]</t>
+          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>The term “rural development” is exceptionally multifaceted, which makes it difficult to define. This and other features make it a ‘wicked problem’, which means the consequences of rural developmental problems can create other complications. To date, the important discussion of rural development has dealt with productivity and economic concerns. This discussion has many crucial aspects such as the environment, infrastructure, and respect for fundamental rights. This paper describes the ‘Heritage and Patrimony of the Peasantry’ as an alternative analytical framework for addressing rural development. This analytical framework takes important topics from other rural development perspectives (primarily focused on food sovereignty principles). The heritage and patrimony of the peasantry framework moves away from the market point of view, which converts everything into an asset that can be marketed, and utilizes other sources of heritage. The peasantry has seven kinds of ‘ heritages’ or ‘patrimonies’: natural, cultural, economic, physical, social, institutional, and human. These heritages or patrimonies are the bases of construction for a decent standard of living which will accomplish full rights for all rural inhabit-ants, i.e. rural development. © 2019, Universidad Nacional de Colombia. All rights reserved.</t>
+          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Food security and food sovereignty in West Africa</t>
+          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>The paper analyzes the evolution of food security in West Africa during the last 25 years. The Millennium Development Goal One aims at halving the proportion of people who suffer from hunger by 2015. Although Sub-Saharan Africa remains far from reaching the hunger target, West Africa presents a better situation, with eight countries that will meet the target. The paper focuses on international food trade, analyzing the recent growth of food imports in West Africa and the impact of this growth on food security. The last part of the paper is focused on the case of Benin: the country achieved an important reduction in undernourishment since 1990. The analysis aims to highlight the role of short food supply chains in rural development and therefore in food security strategies. The department of Atacora, in northern Benin, is used as a case study to show the recent evolution of local food networks in a region traditionally characterized by an export-oriented agriculture. In conclusion the paper highlights the link between food security, international trade, and local food networks, showing the potential of the ‘food sovereignty’ paradigm in understanding the geographies of food in West Africa. © 2016 The African Specialty Group of the American Association of Geographers.</t>
+          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>From Food Production to Commodity Production in Argentina’s Agricultural Sector</t>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>An analysis of the semiotic and productive transformation of food crops under Argentina’s agribusiness model through a study of the diffusion of the term “commodity” in the discourse produced/reproduced by the rural sections of the hegemonic media, combined with statistical data that allow a dialogue between discourse and measurable quantities, concludes that defining the Argentine countryside as a place for commodity production is linked with increasing crop production for export that leads to the erosion of food sovereignty and food security. Un análisis de las transformaciones semióticas y productivas de los frutos de la tierra bajo el modelo argentino de los agronegocios que examina la extensión del término commodity en los discursos producidos/reproducidos por las secciones rurales de los medios gráficos de comunicación hegemónicos, entrecruzado con datos estadísticos para poner en diálogo el nivel del discurso con el de las cantidades medibles, concluye que la consigna que define al campo argentino como un lugar de producción de commodities se imbrica con una tendencia a la intensificación de los cultivos orientados exclusivamente a la exportación y la erosión de la soberanía y seguridad alimentaria. © 2018 Latin American Perspectives.</t>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,15 +1700,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
+          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
+          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1736,15 +1736,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1772,15 +1772,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Troubling Tradition, Community, and Self-Reliance: Reframing Expectations for Village Seed Banks</t>
+          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Heralded by both food sovereignty activists and mainstream development practitioners, village seed banks are a rural development phenomenon rapidly gaining attention for their potential to support resilient agricultural systems. This paper presents a case study for examining the power of prevailing narratives of decentralized development to shape and ultimately constrain the operations of village seed banks in Telangana, India. This case demonstrates how visions of tradition, community, and self-reliance can serve to discount the materiality of seeds, the social complexity of village institutions, and even the voices of farmers. The goal of this research is not to criticize village seed banks, as they hold great potential, nor to vilify the narratives in question, but rather to encourage critical reflection on how the assumptions embedded in these narratives shape mechanisms for agricultural development. I argue for a shift away from framing tradition, community, and self-reliance as development solutions and propose an interrogative approach that turns these narratives into questions for engaging more effectively with rural livelihoods. © 2017 Elsevier Ltd</t>
+          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,15 +1808,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
+          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
+          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1833,294 +1833,6 @@
         </is>
       </c>
       <c r="H39" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Agroecology in the Brazilian government agenda: Developments between 2011 and 2014; [La agroecología en la agenda del gobierno Brasileño: Desarrollos entre 2011 y 2014]</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Since 2003, in Brazil, the agroecological perspective has been present in punctual public policies of the federal government. In 2012, with a convergent action of the agroecological movement and the organic production, the National Policy for Agroecology and Organic Production was created. This article presents a reconstruction of the process, while highlighting involved actors, as well as their demands and interests, ideas, and main forums. Despite its limitations and conflicts, the Pnapo is a benchmark and a political achievement, having insured the agroecological agenda in the public policies inter-related to rural development, food sovereignty, and the human right to adequate food. © 2017, Pontificia Universidad Javeriana. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Peasant activism and the rise of food sovereignty: Decolonising and democratising norm diffusion?</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>‘Food sovereignty’ emerged from grassroots peasant mobilisations, and has been spread globally by a democratically organised social movement, la Vía Campesina. This process has seen food sovereignty influence global political discourse, transform national constitutions and be incorporated into a proposed United Nations declaration on the rights of peasants and other people working in rural areas. By examining the role of grassroots actors in the global South in the construction of this emerging global norm, I militate against tendencies of West-centrism and elitism in existing literature on the contemporary diffusion of norms. By also discussing the potential marginalisation of grassroots peasant voices in recent United Nations discussions, I suggest that these elitist and West-centric tendencies may also exist in the norm diffusion process itself. © 2015, © The Author(s) 2015.</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Accountability and the empowerment of rural people’s organizations in global rural transformation</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>How to ensure that what has been termed a ‘rural transformation agenda’ is formulated with the participation of organizations directly representing those sectors of the population most strongly and directly affected? Under what conditions might peoples’ movements adopt accountability to support their struggles? This article approaches questions like these by examining the innovative setting of the reformed Committee on World Food Security, in which civil society engages on the same footing as governments. © 2016 Society for International Development.</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Farmer seed networks make a limited contribution to agriculture? Four common misconceptions</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>The importance of seed provisioning in food security and nutrition, agricultural development and rural livelihoods, and agrobiodiversity and germplasm conservation is well accepted by policy makers, practitioners and researchers. The role of farmer seed networks is less well understood and yet is central to debates on current issues ranging from seed sovereignty and rights for farmers to GMOs and the conservation of crop germplasm. In this paper we identify four common misconceptions regarding the nature and importance of farmer seed networks today. (1) Farmer seed networks are inefficient for seed dissemination. (2) Farmer seed networks are closed, conservative systems. (3) Farmer seed networks provide ready, egalitarian access to seed. (4) Farmer seed networks are destined to weaken and disappear. We challenge these misconceptions by drawing upon recent research findings and the authors' collective field experience in studying farmer seed systems in Africa, Europe, Latin America and Oceania. Priorities for future research are suggested that would advance our understanding of seed networks and better inform agricultural and food policy. © 2015 The Authors. Published by Elsevier Ltd.</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>“We Plant Only Cotton to Maximize Our Earnings”: The Paradox of Food Sovereignty in Rural Telengana, India</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>This article critically examines the role of food sovereignty interventions in the mitigation of the impacts of neoliberal economic policies on poor farmers in the Telengana region of India. Findings based on eighteen months of ethnographic research in the Telengana region reveal that small and poor farmers face socioeconomic and cultural constraints to the adoption of food sovereignty practices and ideals. Food sovereignty prescriptions based on localized, sustainable, and subsistence agriculture paradoxically constrained farmers’ chances of maintaining viable rural livelihoods in a harsh economic climate. Based on these findings, I argue that contrary to assertions by advocates that food sovereignty is a precondition to genuine food security, farmers must first have food and livelihood security to exercise true food sovereignty that allows them more control over their livelihoods. © 2015, © Copyright 2015 by Association of American Geographers.</t>
-        </is>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
         <is>
           <t>_</t>
         </is>
